--- a/biology/Botanique/Acanthonema_strigosum/Acanthonema_strigosum.xlsx
+++ b/biology/Botanique/Acanthonema_strigosum/Acanthonema_strigosum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acanthonema strigosum est une espèce de plantes à fleurs tropicales de la famille des Gesneriaceae et du genre Acanthonema, présente principalement au Cameroun. 
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une herbacée de 30 cm environ, parfois épiphyte. Elle possède des fleurs blanches et des racines poilues et se développe dans les forêts, ainsi que dans les milieux rocailleux humides[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une herbacée de 30 cm environ, parfois épiphyte. Elle possède des fleurs blanches et des racines poilues et se développe dans les forêts, ainsi que dans les milieux rocailleux humides.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été observée sur 22 sites dans 5 régions du Cameroun, également sur 2 sites au Gabon, 1 site sur l'île de Bioko en Guinée équatoriale et 1 site au sud-est du Nigeria[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été observée sur 22 sites dans 5 régions du Cameroun, également sur 2 sites au Gabon, 1 site sur l'île de Bioko en Guinée équatoriale et 1 site au sud-est du Nigeria.
 </t>
         </is>
       </c>
